--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\mark\Script-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mark\Script-app\Script-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDF64BB-2D2F-432F-BB01-0025E94A2711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -683,22 +684,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 3 2" xfId="3"/>
+    <cellStyle name="Comma 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 4 2" xfId="4"/>
+    <cellStyle name="Percent 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,16 +1027,16 @@
       <c r="G8">
         <v>260000</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1054,28 +1055,28 @@
         <f>SUM(H13:H19)</f>
         <v>15000</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>SUM(I13:I19)</f>
         <v>2.8846153846153848E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f>SUM(D13:D19)</f>
         <v>585690.33125000005</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1144,19 +1145,19 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F19" si="0">+E14*$G$9</f>
+        <f t="shared" ref="F14:F20" si="0">+E14*$G$9</f>
         <v>200</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G19" si="1">+E14*C14</f>
+        <f t="shared" ref="G14:G20" si="1">+E14*C14</f>
         <v>5000</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H19" si="2">+F14*C14</f>
+        <f t="shared" ref="H14:H20" si="2">+F14*C14</f>
         <v>10000</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14:I19" si="3">+G14/$G$8</f>
+        <f t="shared" ref="I14:I20" si="3">+G14/$G$8</f>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
@@ -1308,6 +1309,22 @@
       <c r="D20" s="5">
         <v>225300.125</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1320,6 +1337,22 @@
       <c r="D21" s="5">
         <v>112452.65625</v>
       </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F84" si="4">+E21*$G$9</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G84" si="5">+E21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H84" si="6">+F21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I84" si="7">+G21/$G$8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -1331,6 +1364,22 @@
       <c r="D22" s="5">
         <v>63350.224999999999</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -1342,6 +1391,22 @@
       <c r="D23" s="5">
         <v>73435.5</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -1353,6 +1418,22 @@
       <c r="D24" s="5">
         <v>157443</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1364,6 +1445,22 @@
       <c r="D25" s="5">
         <v>52496.262499999997</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -1375,6 +1472,22 @@
       <c r="D26" s="5">
         <v>121432.09375</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1386,6 +1499,22 @@
       <c r="D27" s="5">
         <v>74889.6875</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1397,6 +1526,22 @@
       <c r="D28" s="5">
         <v>96465.9375</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
@@ -1408,6 +1553,22 @@
       <c r="D29" s="5">
         <v>86656.3125</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
@@ -1419,6 +1580,22 @@
       <c r="D30" s="5">
         <v>89265.0625</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
@@ -1430,6 +1607,22 @@
       <c r="D31" s="5">
         <v>99736.893750000017</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
@@ -1441,8 +1634,24 @@
       <c r="D32" s="5">
         <v>127398</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
@@ -1452,8 +1661,24 @@
       <c r="D33" s="5">
         <v>100994.09375</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
@@ -1463,8 +1688,24 @@
       <c r="D34" s="5">
         <v>153999.38437499999</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
@@ -1474,8 +1715,24 @@
       <c r="D35" s="5">
         <v>107664.859375</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>25</v>
       </c>
@@ -1485,8 +1742,27 @@
       <c r="D36" s="5">
         <v>110716.25</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>6800</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>13600</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="7"/>
+        <v>2.6153846153846153E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1772,24 @@
       <c r="D37" s="5">
         <v>118373.175</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>27</v>
       </c>
@@ -1507,8 +1799,24 @@
       <c r="D38" s="5">
         <v>201614.4</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
@@ -1518,8 +1826,24 @@
       <c r="D39" s="5">
         <v>88190.85</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>29</v>
       </c>
@@ -1529,8 +1853,24 @@
       <c r="D40" s="5">
         <v>91601.85</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
@@ -1540,8 +1880,24 @@
       <c r="D41" s="5">
         <v>87761.162500000006</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
@@ -1551,8 +1907,24 @@
       <c r="D42" s="5">
         <v>150749.25000000003</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
@@ -1562,8 +1934,24 @@
       <c r="D43" s="5">
         <v>130236.591375</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>33</v>
       </c>
@@ -1573,8 +1961,24 @@
       <c r="D44" s="5">
         <v>136198.125</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>34</v>
       </c>
@@ -1584,8 +1988,24 @@
       <c r="D45" s="5">
         <v>110912.03750000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>35</v>
       </c>
@@ -1595,8 +2015,24 @@
       <c r="D46" s="5">
         <v>83892.356249999997</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
@@ -1606,8 +2042,24 @@
       <c r="D47" s="5">
         <v>177099.07500000001</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>37</v>
       </c>
@@ -1617,8 +2069,24 @@
       <c r="D48" s="5">
         <v>72112.55</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>38</v>
       </c>
@@ -1628,8 +2096,24 @@
       <c r="D49" s="5">
         <v>136040.02499999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
@@ -1639,8 +2123,24 @@
       <c r="D50" s="5">
         <v>138052.35</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>40</v>
       </c>
@@ -1650,8 +2150,24 @@
       <c r="D51" s="5">
         <v>102802.65625</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>41</v>
       </c>
@@ -1661,8 +2177,24 @@
       <c r="D52" s="5">
         <v>67224.868749999994</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>42</v>
       </c>
@@ -1672,8 +2204,24 @@
       <c r="D53" s="5">
         <v>71172.675000000003</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>43</v>
       </c>
@@ -1683,8 +2231,24 @@
       <c r="D54" s="5">
         <v>239054.75000000003</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>44</v>
       </c>
@@ -1694,8 +2258,24 @@
       <c r="D55" s="5">
         <v>52931.15625</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>45</v>
       </c>
@@ -1705,8 +2285,24 @@
       <c r="D56" s="5">
         <v>169930.14150000003</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>46</v>
       </c>
@@ -1716,8 +2312,24 @@
       <c r="D57" s="5">
         <v>59484.453125000007</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
@@ -1727,8 +2339,24 @@
       <c r="D58" s="5">
         <v>54999.037499999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>48</v>
       </c>
@@ -1738,8 +2366,24 @@
       <c r="D59" s="5">
         <v>55853.925000000003</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>49</v>
       </c>
@@ -1749,8 +2393,24 @@
       <c r="D60" s="5">
         <v>66822.500000000015</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>50</v>
       </c>
@@ -1760,8 +2420,24 @@
       <c r="D61" s="5">
         <v>143937.5</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
@@ -1771,8 +2447,24 @@
       <c r="D62" s="5">
         <v>95141.725000000006</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>52</v>
       </c>
@@ -1782,8 +2474,24 @@
       <c r="D63" s="5">
         <v>161470.65</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>53</v>
       </c>
@@ -1793,8 +2501,24 @@
       <c r="D64" s="5">
         <v>57825.578125</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>54</v>
       </c>
@@ -1804,8 +2528,24 @@
       <c r="D65" s="5">
         <v>101158.05</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>55</v>
       </c>
@@ -1815,8 +2555,24 @@
       <c r="D66" s="5">
         <v>89402.431249999994</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>56</v>
       </c>
@@ -1826,8 +2582,24 @@
       <c r="D67" s="5">
         <v>84802.05</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>57</v>
       </c>
@@ -1837,8 +2609,24 @@
       <c r="D68" s="5">
         <v>127588.75</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>58</v>
       </c>
@@ -1848,8 +2636,24 @@
       <c r="D69" s="5">
         <v>175579.35</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>59</v>
       </c>
@@ -1859,8 +2663,24 @@
       <c r="D70" s="5">
         <v>140428.51250000001</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>60</v>
       </c>
@@ -1870,8 +2690,24 @@
       <c r="D71" s="5">
         <v>112564.6875</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>61</v>
       </c>
@@ -1881,8 +2717,24 @@
       <c r="D72" s="5">
         <v>112084.625</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>62</v>
       </c>
@@ -1892,8 +2744,24 @@
       <c r="D73" s="5">
         <v>139805.81874999998</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>63</v>
       </c>
@@ -1903,8 +2771,24 @@
       <c r="D74" s="5">
         <v>83331.487500000003</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>64</v>
       </c>
@@ -1914,8 +2798,24 @@
       <c r="D75" s="5">
         <v>93088.362500000003</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>65</v>
       </c>
@@ -1925,8 +2825,24 @@
       <c r="D76" s="5">
         <v>105750</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>66</v>
       </c>
@@ -1936,8 +2852,24 @@
       <c r="D77" s="5">
         <v>64922</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>67</v>
       </c>
@@ -1947,8 +2879,24 @@
       <c r="D78" s="5">
         <v>84237.125</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>68</v>
       </c>
@@ -1958,8 +2906,27 @@
       <c r="D79" s="5">
         <v>95069.774999999994</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>13.8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>27.6</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>4140</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>8280</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5923076923076922E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>69</v>
       </c>
@@ -1969,8 +2936,24 @@
       <c r="D80" s="5">
         <v>60404.05</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>70</v>
       </c>
@@ -1980,8 +2963,24 @@
       <c r="D81" s="5">
         <v>76198.925000000003</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>71</v>
       </c>
@@ -1991,8 +2990,24 @@
       <c r="D82" s="5">
         <v>81988.362500000003</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>72</v>
       </c>
@@ -2002,8 +3017,24 @@
       <c r="D83" s="5">
         <v>87568.125</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>73</v>
       </c>
@@ -2013,8 +3044,24 @@
       <c r="D84" s="5">
         <v>137830.31875000001</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>74</v>
       </c>
@@ -2024,8 +3071,24 @@
       <c r="D85" s="5">
         <v>122936.4</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" ref="F85:F148" si="8">+E85*$G$9</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85:G148" si="9">+E85*C85</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85:H148" si="10">+F85*C85</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" ref="I85:I148" si="11">+G85/$G$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>75</v>
       </c>
@@ -2035,8 +3098,24 @@
       <c r="D86" s="5">
         <v>62324.0625</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>76</v>
       </c>
@@ -2046,8 +3125,24 @@
       <c r="D87" s="5">
         <v>193082.72500000001</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>77</v>
       </c>
@@ -2057,8 +3152,24 @@
       <c r="D88" s="5">
         <v>117189.703125</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>78</v>
       </c>
@@ -2068,8 +3179,24 @@
       <c r="D89" s="5">
         <v>69114.721875000003</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>79</v>
       </c>
@@ -2079,8 +3206,24 @@
       <c r="D90" s="5">
         <v>163512.375</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>80</v>
       </c>
@@ -2090,8 +3233,24 @@
       <c r="D91" s="5">
         <v>155828.75</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>81</v>
       </c>
@@ -2101,8 +3260,24 @@
       <c r="D92" s="5">
         <v>116676.62499999999</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>82</v>
       </c>
@@ -2112,8 +3287,24 @@
       <c r="D93" s="5">
         <v>88564.09375</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>83</v>
       </c>
@@ -2123,8 +3314,24 @@
       <c r="D94" s="5">
         <v>73352.174999999988</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>84</v>
       </c>
@@ -2134,8 +3341,24 @@
       <c r="D95" s="5">
         <v>116294.5</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>85</v>
       </c>
@@ -2145,8 +3368,24 @@
       <c r="D96" s="5">
         <v>229420.35</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>86</v>
       </c>
@@ -2156,8 +3395,24 @@
       <c r="D97" s="5">
         <v>90980.75</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>87</v>
       </c>
@@ -2167,8 +3422,24 @@
       <c r="D98" s="5">
         <v>90968.625</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>88</v>
       </c>
@@ -2178,8 +3449,24 @@
       <c r="D99" s="5">
         <v>71488.625</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>89</v>
       </c>
@@ -2189,8 +3476,24 @@
       <c r="D100" s="5">
         <v>90893.034375000003</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>90</v>
       </c>
@@ -2200,8 +3503,24 @@
       <c r="D101" s="5">
         <v>71890</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>91</v>
       </c>
@@ -2211,8 +3530,24 @@
       <c r="D102" s="5">
         <v>187000.9375</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>92</v>
       </c>
@@ -2222,8 +3557,24 @@
       <c r="D103" s="5">
         <v>131206.5</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>93</v>
       </c>
@@ -2233,8 +3584,24 @@
       <c r="D104" s="5">
         <v>198315.9375</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>94</v>
       </c>
@@ -2244,8 +3611,24 @@
       <c r="D105" s="5">
         <v>94389.4</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>95</v>
       </c>
@@ -2255,8 +3638,24 @@
       <c r="D106" s="5">
         <v>115457.5965</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>96</v>
       </c>
@@ -2266,8 +3665,24 @@
       <c r="D107" s="5">
         <v>110198.75</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>97</v>
       </c>
@@ -2277,8 +3692,24 @@
       <c r="D108" s="5">
         <v>125731.75</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2288,8 +3719,24 @@
       <c r="D109" s="5">
         <v>92531.659375000003</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>99</v>
       </c>
@@ -2299,8 +3746,24 @@
       <c r="D110" s="5">
         <v>84542.512499999997</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2310,8 +3773,24 @@
       <c r="D111" s="5">
         <v>100841.85</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>101</v>
       </c>
@@ -2321,8 +3800,24 @@
       <c r="D112" s="5">
         <v>104312.425</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>102</v>
       </c>
@@ -2332,8 +3827,24 @@
       <c r="D113" s="5">
         <v>78941.975000000006</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>103</v>
       </c>
@@ -2343,8 +3854,24 @@
       <c r="D114" s="5">
         <v>96692</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>104</v>
       </c>
@@ -2354,8 +3881,24 @@
       <c r="D115" s="5">
         <v>197745</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>105</v>
       </c>
@@ -2365,8 +3908,24 @@
       <c r="D116" s="5">
         <v>97227.25</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>106</v>
       </c>
@@ -2376,8 +3935,24 @@
       <c r="D117" s="5">
         <v>92482.925000000003</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>107</v>
       </c>
@@ -2387,8 +3962,24 @@
       <c r="D118" s="5">
         <v>78859.062500000015</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
         <v>108</v>
       </c>
@@ -2398,8 +3989,24 @@
       <c r="D119" s="5">
         <v>75574.425000000003</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>109</v>
       </c>
@@ -2409,8 +4016,24 @@
       <c r="D120" s="5">
         <v>117715.56875000001</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>110</v>
       </c>
@@ -2420,8 +4043,24 @@
       <c r="D121" s="5">
         <v>85966.125</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>111</v>
       </c>
@@ -2431,8 +4070,24 @@
       <c r="D122" s="5">
         <v>155454.79999999999</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>112</v>
       </c>
@@ -2442,8 +4097,24 @@
       <c r="D123" s="5">
         <v>142141.5625</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>113</v>
       </c>
@@ -2453,8 +4124,24 @@
       <c r="D124" s="5">
         <v>101984.10625000001</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>114</v>
       </c>
@@ -2464,8 +4151,24 @@
       <c r="D125" s="5">
         <v>77273.713749999995</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>115</v>
       </c>
@@ -2475,8 +4178,24 @@
       <c r="D126" s="5">
         <v>160624.03125</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>116</v>
       </c>
@@ -2486,8 +4205,24 @@
       <c r="D127" s="5">
         <v>85391</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>117</v>
       </c>
@@ -2497,8 +4232,24 @@
       <c r="D128" s="5">
         <v>235235.375</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>118</v>
       </c>
@@ -2508,8 +4259,24 @@
       <c r="D129" s="5">
         <v>86927.609375</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>119</v>
       </c>
@@ -2519,8 +4286,24 @@
       <c r="D130" s="5">
         <v>114868.265625</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
         <v>120</v>
       </c>
@@ -2530,8 +4313,24 @@
       <c r="D131" s="5">
         <v>78733.118749999994</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>121</v>
       </c>
@@ -2541,8 +4340,24 @@
       <c r="D132" s="5">
         <v>194680.22500000001</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="6" t="s">
         <v>122</v>
       </c>
@@ -2552,8 +4367,24 @@
       <c r="D133" s="5">
         <v>81636.824999999997</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
         <v>123</v>
       </c>
@@ -2563,8 +4394,24 @@
       <c r="D134" s="5">
         <v>227762.15</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>124</v>
       </c>
@@ -2574,8 +4421,24 @@
       <c r="D135" s="5">
         <v>105345.57</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>125</v>
       </c>
@@ -2585,8 +4448,24 @@
       <c r="D136" s="5">
         <v>158444.13750000001</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>126</v>
       </c>
@@ -2596,8 +4475,24 @@
       <c r="D137" s="5">
         <v>89967.75</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>127</v>
       </c>
@@ -2607,8 +4502,24 @@
       <c r="D138" s="5">
         <v>103267.97500000001</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>128</v>
       </c>
@@ -2618,8 +4529,24 @@
       <c r="D139" s="5">
         <v>74513.671875</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>129</v>
       </c>
@@ -2629,8 +4556,24 @@
       <c r="D140" s="5">
         <v>109824.75</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>130</v>
       </c>
@@ -2640,8 +4583,24 @@
       <c r="D141" s="5">
         <v>83741.9375</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>131</v>
       </c>
@@ -2651,8 +4610,24 @@
       <c r="D142" s="5">
         <v>113902</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>132</v>
       </c>
@@ -2662,8 +4637,24 @@
       <c r="D143" s="5">
         <v>88768.451625000002</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>133</v>
       </c>
@@ -2673,8 +4664,24 @@
       <c r="D144" s="5">
         <v>124124.92675000001</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>134</v>
       </c>
@@ -2684,8 +4691,24 @@
       <c r="D145" s="5">
         <v>96845.8125</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
@@ -2695,8 +4718,24 @@
       <c r="D146" s="5">
         <v>91291.274999999994</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="6" t="s">
         <v>136</v>
       </c>
@@ -2706,8 +4745,24 @@
       <c r="D147" s="5">
         <v>106113</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>137</v>
       </c>
@@ -2717,8 +4772,24 @@
       <c r="D148" s="5">
         <v>56484.4375</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>138</v>
       </c>
@@ -2728,8 +4799,24 @@
       <c r="D149" s="5">
         <v>303923.40625</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f t="shared" ref="F149:F176" si="12">+E149*$G$9</f>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" ref="G149:G176" si="13">+E149*C149</f>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" ref="H149:H176" si="14">+F149*C149</f>
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" ref="I149:I176" si="15">+G149/$G$8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>139</v>
       </c>
@@ -2739,8 +4826,24 @@
       <c r="D150" s="5">
         <v>114463.03125000001</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>140</v>
       </c>
@@ -2750,8 +4853,24 @@
       <c r="D151" s="5">
         <v>114176.8125</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>141</v>
       </c>
@@ -2761,8 +4880,24 @@
       <c r="D152" s="5">
         <v>73330.309374999997</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
         <v>142</v>
       </c>
@@ -2772,8 +4907,24 @@
       <c r="D153" s="5">
         <v>55295.521874999999</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>143</v>
       </c>
@@ -2783,8 +4934,24 @@
       <c r="D154" s="5">
         <v>129845.25</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>144</v>
       </c>
@@ -2794,8 +4961,24 @@
       <c r="D155" s="5">
         <v>90775.9</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
         <v>145</v>
       </c>
@@ -2805,8 +4988,24 @@
       <c r="D156" s="5">
         <v>130215.925</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
         <v>146</v>
       </c>
@@ -2816,8 +5015,24 @@
       <c r="D157" s="5">
         <v>169548.75</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
         <v>147</v>
       </c>
@@ -2827,8 +5042,24 @@
       <c r="D158" s="5">
         <v>90348</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>148</v>
       </c>
@@ -2838,8 +5069,24 @@
       <c r="D159" s="5">
         <v>138368.75625000001</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>149</v>
       </c>
@@ -2849,8 +5096,24 @@
       <c r="D160" s="5">
         <v>130672.85625</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="6" t="s">
         <v>150</v>
       </c>
@@ -2860,8 +5123,24 @@
       <c r="D161" s="5">
         <v>108975.375</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>151</v>
       </c>
@@ -2871,8 +5150,24 @@
       <c r="D162" s="5">
         <v>193864.6</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
         <v>152</v>
       </c>
@@ -2882,8 +5177,24 @@
       <c r="D163" s="5">
         <v>100082.1375</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>153</v>
       </c>
@@ -2893,8 +5204,24 @@
       <c r="D164" s="5">
         <v>79614.375</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
         <v>154</v>
       </c>
@@ -2904,8 +5231,27 @@
       <c r="D165" s="5">
         <v>66713.015625</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>13.7</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="12"/>
+        <v>27.4</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="13"/>
+        <v>5137.5</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="14"/>
+        <v>10275</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="15"/>
+        <v>1.9759615384615386E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>155</v>
       </c>
@@ -2915,8 +5261,24 @@
       <c r="D166" s="5">
         <v>76249.5625</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
         <v>156</v>
       </c>
@@ -2926,8 +5288,24 @@
       <c r="D167" s="5">
         <v>76057.6875</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>157</v>
       </c>
@@ -2937,8 +5315,24 @@
       <c r="D168" s="5">
         <v>86091.484375</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>158</v>
       </c>
@@ -2948,8 +5342,24 @@
       <c r="D169" s="5">
         <v>93942.8</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
         <v>159</v>
       </c>
@@ -2959,8 +5369,24 @@
       <c r="D170" s="5">
         <v>111064.71250000001</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
         <v>160</v>
       </c>
@@ -2970,8 +5396,24 @@
       <c r="D171" s="5">
         <v>110239.53750000001</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>161</v>
       </c>
@@ -2981,8 +5423,24 @@
       <c r="D172" s="5">
         <v>138687.9</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
         <v>162</v>
       </c>
@@ -2992,8 +5450,24 @@
       <c r="D173" s="5">
         <v>164062.85</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
         <v>163</v>
       </c>
@@ -3003,8 +5477,24 @@
       <c r="D174" s="5">
         <v>55171.9375</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
         <v>164</v>
       </c>
@@ -3014,8 +5504,24 @@
       <c r="D175" s="5">
         <v>99030.2</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
         <v>165</v>
       </c>
@@ -3024,6 +5530,22 @@
       </c>
       <c r="D176" s="5">
         <v>119042.25000000001</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
